--- a/Gestion_de_Cursos/Archivos_importados/2024/2-2024/listado_de_deteccion_de_necesidades/listado_(Semana_3).xlsx
+++ b/Gestion_de_Cursos/Archivos_importados/2024/2-2024/listado_de_deteccion_de_necesidades/listado_(Semana_3).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\andyb\Downloads\pruebas\Pruebas actualizadas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\andyb\Documents\NetBeansProjects\nuevo\DesarrolloAcademico\Gestion_de_Cursos\Archivos_importados\2024\2-2024\listado_de_deteccion_de_necesidades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9AE1539-835A-407F-ACB9-CF6800022CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE2AAB1-8ED3-431A-A0BB-5A489FB2F3A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="4632" windowWidth="17280" windowHeight="7608" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="32">
   <si>
     <t>Nombre</t>
   </si>
@@ -132,36 +132,6 @@
   </si>
   <si>
     <t>Graciela Salazar Lopez</t>
-  </si>
-  <si>
-    <t>Sofía Gómez Morales</t>
-  </si>
-  <si>
-    <t>Luis Fernando Vargas Ramírez</t>
-  </si>
-  <si>
-    <t>Camila Martínez Delgado</t>
-  </si>
-  <si>
-    <t>Andrés Pérez Santiago</t>
-  </si>
-  <si>
-    <t>Valentina Rivera López</t>
-  </si>
-  <si>
-    <t>Juan Carlos Méndez Hernández</t>
-  </si>
-  <si>
-    <t>Daniela Castillo Ortega</t>
-  </si>
-  <si>
-    <t>Mateo Rojas Fernández</t>
-  </si>
-  <si>
-    <t>Natalia Torres Mendoza</t>
-  </si>
-  <si>
-    <t>Alejandro Herrera Jiménez</t>
   </si>
 </sst>
 </file>
@@ -307,6 +277,10 @@
     <xf numFmtId="2" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -315,10 +289,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -536,8 +506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -553,20 +523,20 @@
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="8"/>
+      <c r="D2" s="10"/>
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
@@ -588,9 +558,9 @@
       <c r="D4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1">
       <c r="A5" s="4" t="s">
@@ -605,9 +575,9 @@
       <c r="D5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" ht="14.25" customHeight="1">
       <c r="A6" s="4" t="s">
@@ -622,9 +592,9 @@
       <c r="D6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7" ht="14.25" customHeight="1">
       <c r="A7" s="4" t="s">
@@ -639,9 +609,9 @@
       <c r="D7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" ht="14.25" customHeight="1">
       <c r="A8" s="4" t="s">
@@ -656,9 +626,9 @@
       <c r="D8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7" ht="14.25" customHeight="1">
       <c r="A9" s="4" t="s">
@@ -673,9 +643,9 @@
       <c r="D9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7" ht="14.25" customHeight="1">
       <c r="A10" s="4" t="s">
@@ -690,9 +660,9 @@
       <c r="D10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1">
       <c r="A11" s="4" t="s">
@@ -707,9 +677,9 @@
       <c r="D11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7" ht="14.25" customHeight="1">
       <c r="A12" s="4" t="s">
@@ -724,9 +694,9 @@
       <c r="D12" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7" ht="14.25" customHeight="1">
       <c r="A13" s="4" t="s">
@@ -741,9 +711,9 @@
       <c r="D13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" ht="14.25" customHeight="1">
       <c r="A14" s="4" t="s">
@@ -758,9 +728,9 @@
       <c r="D14" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:7" ht="14.25" customHeight="1">
       <c r="A15" s="4" t="s">
@@ -775,9 +745,9 @@
       <c r="D15" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:7" ht="14.25" customHeight="1">
       <c r="A16" s="4" t="s">
@@ -792,9 +762,9 @@
       <c r="D16" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:9" ht="14.25" customHeight="1">
       <c r="A17" s="4" t="s">
@@ -809,9 +779,9 @@
       <c r="D17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:9" ht="14.25" customHeight="1">
       <c r="A18" s="4" t="s">
@@ -826,9 +796,9 @@
       <c r="D18" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:9" ht="14.25" customHeight="1">
       <c r="A19" s="4" t="s">
@@ -843,9 +813,9 @@
       <c r="D19" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
     </row>
     <row r="20" spans="1:9" ht="14.25" customHeight="1">
       <c r="A20" s="4" t="s">
@@ -860,11 +830,11 @@
       <c r="D20" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
     </row>
     <row r="21" spans="1:9" ht="14.25" customHeight="1">
       <c r="A21" s="4" t="s">
@@ -879,11 +849,11 @@
       <c r="D21" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
     </row>
     <row r="22" spans="1:9" ht="14.25" customHeight="1">
       <c r="A22" s="4" t="s">
@@ -898,11 +868,11 @@
       <c r="D22" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
     </row>
     <row r="23" spans="1:9" ht="14.25" customHeight="1">
       <c r="A23" s="4" t="s">
@@ -917,11 +887,11 @@
       <c r="D23" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
     </row>
     <row r="24" spans="1:9" ht="14.25" customHeight="1">
       <c r="A24" s="4" t="s">
@@ -936,11 +906,11 @@
       <c r="D24" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
     </row>
     <row r="25" spans="1:9" ht="14.25" customHeight="1">
       <c r="A25" s="4" t="s">
@@ -955,11 +925,11 @@
       <c r="D25" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
     </row>
     <row r="26" spans="1:9" ht="14.25" customHeight="1">
       <c r="A26" s="4" t="s">
@@ -974,11 +944,11 @@
       <c r="D26" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
     </row>
     <row r="27" spans="1:9" ht="14.25" customHeight="1">
       <c r="A27" s="4" t="s">
@@ -993,11 +963,11 @@
       <c r="D27" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
     </row>
     <row r="28" spans="1:9" ht="14.25" customHeight="1">
       <c r="A28" s="4" t="s">
@@ -1012,151 +982,71 @@
       <c r="D28" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
     </row>
     <row r="29" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A29" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" s="10">
-        <v>1.19</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>5</v>
-      </c>
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
     </row>
     <row r="30" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A30" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="10">
-        <v>2.77</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>5</v>
-      </c>
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
     </row>
     <row r="31" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A31" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="10">
-        <v>2.84</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>5</v>
-      </c>
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
     </row>
     <row r="32" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A32" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" s="10">
-        <v>1.45</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>5</v>
-      </c>
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
     </row>
     <row r="33" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A33" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" s="10">
-        <v>3.65</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>5</v>
-      </c>
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
     </row>
     <row r="34" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A34" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" s="10">
-        <v>3.18</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>24</v>
-      </c>
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
     </row>
     <row r="35" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A35" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35" s="10">
-        <v>2.38</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>24</v>
-      </c>
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
     </row>
     <row r="36" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A36" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" s="10">
-        <v>1.03</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>5</v>
-      </c>
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
     </row>
     <row r="37" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A37" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37" s="10">
-        <v>1.89</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>24</v>
-      </c>
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
     </row>
     <row r="38" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A38" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38" s="10">
-        <v>2.42</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>5</v>
-      </c>
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
     </row>
     <row r="39" spans="1:4" ht="14.25" customHeight="1">
       <c r="C39" s="1"/>
